--- a/biology/Botanique/Cycadopsida/Cycadopsida.xlsx
+++ b/biology/Botanique/Cycadopsida/Cycadopsida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cycadophytes (Cycadophyta) ou Cycadopsides (Cycadopsida) forment une division (ou une classe) de plantes vasculaires gymnospermes apparues au Permien qui compte actuellement environ 360 espèces.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cycadales sont des plantes d'assez grande taille à l'aspect voisin de celui des palmiers. Les Cycadales comme les pinophytes et contrairement aux palmiers présentent une croissance secondaire en épaisseur à partir d'une assise cambiale. Cette croissance est lente.
 Les structures reproductrices sont des cônes aux environs de l'apex de la plante. Les Cycadales sont dioïques ; c'est-à-dire qu'il existe des plants portant uniquement des cônes mâles et d'autres uniquement des cônes femelles.
@@ -545,10 +559,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces plantes formaient traditionnellement la division Cycadophyta Bessey, 1907. Dans la classification phylogénétique APG III (2009)[1] elles correspondent à la sous-classe Cycadidae Pax, 1894.
-Liste des familles actuelles selon ITIS[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces plantes formaient traditionnellement la division Cycadophyta Bessey, 1907. Dans la classification phylogénétique APG III (2009) elles correspondent à la sous-classe Cycadidae Pax, 1894.
+Liste des familles actuelles selon ITIS :
 (sous-classe Cycadidae :)
 ordre Cycadales :
 Cycadaceae Pers
@@ -582,9 +598,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On les classe donc dans les Gymnospermes suivant le cladogramme ci-dessous [3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On les classe donc dans les Gymnospermes suivant le cladogramme ci-dessous .
 </t>
         </is>
       </c>
@@ -613,7 +631,9 @@
           <t>Images</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Cycadophyta à Kobe
